--- a/output/base_datos_lf.xlsx
+++ b/output/base_datos_lf.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">ESPOIR II</t>
   </si>
   <si>
-    <t xml:space="preserve">IDH</t>
+    <t xml:space="preserve">IDH HONDURAS</t>
   </si>
   <si>
     <t xml:space="preserve">Management Fee paid in advance</t>
